--- a/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UGDSCSB" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,77 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>UGDSBLBOP</t>
-  </si>
-  <si>
-    <t>Balance,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>UGDSBLCSB</t>
-  </si>
-  <si>
-    <t>Balance,  Census Basis</t>
-  </si>
-  <si>
-    <t>UGDSBLNADJ</t>
-  </si>
-  <si>
-    <t>Balance,  Net Adjustments</t>
-  </si>
-  <si>
-    <t>UGDSEXBOP</t>
-  </si>
-  <si>
-    <t>Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>UGDSEXCSB</t>
-  </si>
-  <si>
-    <t>Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>UGDSEXNADJ</t>
-  </si>
-  <si>
-    <t>Exports,  Net Adjustments</t>
-  </si>
-  <si>
-    <t>UGDSIMBOP</t>
-  </si>
-  <si>
-    <t>Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>UGDSIMCSB</t>
-  </si>
-  <si>
-    <t>Imports,  Census Basis</t>
-  </si>
-  <si>
-    <t>UGDSIMNADJ</t>
-  </si>
-  <si>
-    <t>Imports,  Net Adjustments</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1999</v>
@@ -507,19 +438,27 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UGDSBLBOP</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>-345434</v>
@@ -587,19 +526,25 @@
       <c r="W2" t="n">
         <v>-922026</v>
       </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>5</v>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>UGDSBLBOP</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Balance,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UGDSBLCSB</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>-328821</v>
@@ -667,19 +612,25 @@
       <c r="W3" t="n">
         <v>-911056</v>
       </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>UGDSBLCSB</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Balance,  Census Basis</t>
+        </is>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UGDSBLNADJ</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>-16613</v>
@@ -747,19 +698,25 @@
       <c r="W4" t="n">
         <v>-10970</v>
       </c>
-      <c r="X4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>UGDSBLNADJ</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Balance,  Net Adjustments</t>
+        </is>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UGDSEXBOP</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>684553</v>
@@ -827,19 +784,25 @@
       <c r="W5" t="n">
         <v>1428798</v>
       </c>
-      <c r="X5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>11</v>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>UGDSEXBOP</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UGDSEXCSB</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>695797</v>
@@ -907,19 +870,25 @@
       <c r="W6" t="n">
         <v>1424935</v>
       </c>
-      <c r="X6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>13</v>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>UGDSEXCSB</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Z6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UGDSEXNADJ</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-11244</v>
@@ -987,19 +956,25 @@
       <c r="W7" t="n">
         <v>3863</v>
       </c>
-      <c r="X7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>15</v>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>UGDSEXNADJ</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Exports,  Net Adjustments</t>
+        </is>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UGDSIMBOP</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1029987</v>
@@ -1067,19 +1042,25 @@
       <c r="W8" t="n">
         <v>2350825</v>
       </c>
-      <c r="X8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>17</v>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>UGDSIMBOP</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UGDSIMCSB</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1024618</v>
@@ -1147,19 +1128,25 @@
       <c r="W9" t="n">
         <v>2335991</v>
       </c>
-      <c r="X9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>19</v>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>UGDSIMCSB</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Imports,  Census Basis</t>
+        </is>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>UGDSIMNADJ</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>5369</v>
@@ -1227,11 +1214,15 @@
       <c r="W10" t="n">
         <v>14834</v>
       </c>
-      <c r="X10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>21</v>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>UGDSIMNADJ</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Imports,  Net Adjustments</t>
+        </is>
       </c>
       <c r="Z10" t="n">
         <v>9</v>

--- a/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +440,25 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -526,17 +536,23 @@
       <c r="W2" t="n">
         <v>-922026</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>-1090682</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1091384</v>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>UGDSBLBOP</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Balance,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -612,17 +628,23 @@
       <c r="W3" t="n">
         <v>-911056</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="n">
+        <v>-1078368</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-1078566</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>UGDSBLCSB</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Balance,  Census Basis</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -698,17 +720,23 @@
       <c r="W4" t="n">
         <v>-10970</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="n">
+        <v>-12314</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-12818</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>UGDSBLNADJ</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Balance,  Net Adjustments</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -784,17 +812,23 @@
       <c r="W5" t="n">
         <v>1428798</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="n">
+        <v>1761967</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1761709</v>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>UGDSEXBOP</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -870,17 +904,23 @@
       <c r="W6" t="n">
         <v>1424935</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="n">
+        <v>1754578</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1754504</v>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>UGDSEXCSB</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -956,17 +996,23 @@
       <c r="W7" t="n">
         <v>3863</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="n">
+        <v>7390</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7205</v>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>UGDSEXNADJ</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Exports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,17 +1088,23 @@
       <c r="W8" t="n">
         <v>2350825</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="n">
+        <v>2852649</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2853093</v>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>UGDSIMBOP</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1128,17 +1180,23 @@
       <c r="W9" t="n">
         <v>2335991</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="n">
+        <v>2832946</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2833070</v>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>UGDSIMCSB</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>Imports,  Census Basis</t>
         </is>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1214,17 +1272,23 @@
       <c r="W10" t="n">
         <v>14834</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="n">
+        <v>19703</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20023</v>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>UGDSIMNADJ</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Imports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>9</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0</t>
+          <t>2021.0.1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">

--- a/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,27 +438,20 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2021.0</t>
-        </is>
+      <c r="X1" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0.1</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Index</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -537,22 +530,19 @@
         <v>-922026</v>
       </c>
       <c r="X2" t="n">
-        <v>-1090682</v>
-      </c>
-      <c r="Y2" t="n">
         <v>-1091384</v>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>UGDSBLBOP</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>UGDSBLBOP</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
           <t>Balance,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AA2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -629,22 +619,19 @@
         <v>-911056</v>
       </c>
       <c r="X3" t="n">
-        <v>-1078368</v>
-      </c>
-      <c r="Y3" t="n">
         <v>-1078566</v>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>UGDSBLCSB</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>UGDSBLCSB</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
           <t>Balance,  Census Basis</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AA3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -721,22 +708,19 @@
         <v>-10970</v>
       </c>
       <c r="X4" t="n">
-        <v>-12314</v>
-      </c>
-      <c r="Y4" t="n">
         <v>-12818</v>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>UGDSBLNADJ</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>UGDSBLNADJ</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
           <t>Balance,  Net Adjustments</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AA4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -813,22 +797,19 @@
         <v>1428798</v>
       </c>
       <c r="X5" t="n">
-        <v>1761967</v>
-      </c>
-      <c r="Y5" t="n">
         <v>1761709</v>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>UGDSEXBOP</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>UGDSEXBOP</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
           <t>Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AA5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -905,22 +886,19 @@
         <v>1424935</v>
       </c>
       <c r="X6" t="n">
-        <v>1754578</v>
-      </c>
-      <c r="Y6" t="n">
         <v>1754504</v>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>UGDSEXCSB</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>UGDSEXCSB</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
           <t>Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AA6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -997,22 +975,19 @@
         <v>3863</v>
       </c>
       <c r="X7" t="n">
-        <v>7390</v>
-      </c>
-      <c r="Y7" t="n">
         <v>7205</v>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>UGDSEXNADJ</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>UGDSEXNADJ</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
           <t>Exports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AA7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1089,22 +1064,19 @@
         <v>2350825</v>
       </c>
       <c r="X8" t="n">
-        <v>2852649</v>
-      </c>
-      <c r="Y8" t="n">
         <v>2853093</v>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>UGDSIMBOP</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>UGDSIMBOP</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
           <t>Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AA8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1181,22 +1153,19 @@
         <v>2335991</v>
       </c>
       <c r="X9" t="n">
-        <v>2832946</v>
-      </c>
-      <c r="Y9" t="n">
         <v>2833070</v>
       </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>UGDSIMCSB</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>UGDSIMCSB</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
           <t>Imports,  Census Basis</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AA9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1273,22 +1242,19 @@
         <v>14834</v>
       </c>
       <c r="X10" t="n">
-        <v>19703</v>
-      </c>
-      <c r="Y10" t="n">
         <v>20023</v>
       </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>UGDSIMNADJ</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>UGDSIMNADJ</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
           <t>Imports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AA10" t="n">
         <v>9</v>
       </c>
     </row>
